--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -81,16 +81,22 @@
     <t>CountVectorizer(STEMATIZER)</t>
   </si>
   <si>
-    <t>CountVectorizer(LEMATIZER)</t>
-  </si>
-  <si>
-    <t>Pipeline6</t>
-  </si>
-  <si>
-    <t>CountVectorizer(LEMATIZER + STEMATIZER)</t>
-  </si>
-  <si>
-    <t>CountVectorizer(LEM+STEM)</t>
+    <t>CountVectorizer()</t>
+  </si>
+  <si>
+    <t>CountVectorizer(LEMMATIZER)</t>
+  </si>
+  <si>
+    <t>95.47%</t>
+  </si>
+  <si>
+    <t>95.25%</t>
+  </si>
+  <si>
+    <t>95.42%</t>
+  </si>
+  <si>
+    <t>95.24%</t>
   </si>
 </sst>
 </file>
@@ -437,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,10 +525,10 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -533,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -542,10 +548,10 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -556,7 +562,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -579,41 +585,18 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -54,9 +54,6 @@
     <t>94.84%</t>
   </si>
   <si>
-    <t>TfidfVectorizer</t>
-  </si>
-  <si>
     <t>?</t>
   </si>
   <si>
@@ -81,9 +78,6 @@
     <t>CountVectorizer(STEMATIZER)</t>
   </si>
   <si>
-    <t>CountVectorizer()</t>
-  </si>
-  <si>
     <t>CountVectorizer(LEMMATIZER)</t>
   </si>
   <si>
@@ -97,6 +91,48 @@
   </si>
   <si>
     <t>95.24%</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer(no-parameters)</t>
+  </si>
+  <si>
+    <t>94.92%</t>
+  </si>
+  <si>
+    <t>94.87%</t>
+  </si>
+  <si>
+    <t>Pipeline6</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer(STEMATIZER)</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer(LEMMATIZER)</t>
+  </si>
+  <si>
+    <t>94.20%</t>
+  </si>
+  <si>
+    <t>94.16%</t>
+  </si>
+  <si>
+    <t>Delete "?" and capital letters</t>
+  </si>
+  <si>
+    <t>94.98%</t>
+  </si>
+  <si>
+    <t>Pipeline7</t>
+  </si>
+  <si>
+    <t>Pipeline8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete "?" </t>
+  </si>
+  <si>
+    <t>94.91%</t>
   </si>
 </sst>
 </file>
@@ -443,16 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" customWidth="1"/>
-    <col min="3" max="3" width="36.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
@@ -490,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -510,13 +546,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -525,21 +561,21 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -556,13 +592,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -571,33 +607,102 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA3B8D-A9CF-42E1-8F7E-9EC8D73DA246}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -133,12 +134,33 @@
   </si>
   <si>
     <t>94.91%</t>
+  </si>
+  <si>
+    <t>CountVectorizer(ngram(1,2),stop_words='english')</t>
+  </si>
+  <si>
+    <t>95.77%</t>
+  </si>
+  <si>
+    <t>95.17%</t>
+  </si>
+  <si>
+    <t>Pipeline9</t>
+  </si>
+  <si>
+    <t>CountVectorizer(LEMMATIZER,ngram(1,2),stop_words='english')</t>
+  </si>
+  <si>
+    <t>95.83%</t>
+  </si>
+  <si>
+    <t>95.12%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,21 +709,67 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DA3B8D-A9CF-42E1-8F7E-9EC8D73DA246}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673A634-DEDF-4DBE-8227-2C5F92178ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>95.12%</t>
+  </si>
+  <si>
+    <t>Pipeline10</t>
+  </si>
+  <si>
+    <t>CountVectorizer(STEMATIZER,ngram(1,2),stop_words='english')</t>
   </si>
 </sst>
 </file>
@@ -504,7 +510,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,6 +756,29 @@
         <v>44</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673A634-DEDF-4DBE-8227-2C5F92178ADA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0330B-664B-4480-BED3-AE4235665FA3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -161,6 +161,24 @@
   </si>
   <si>
     <t>CountVectorizer(STEMATIZER,ngram(1,2),stop_words='english')</t>
+  </si>
+  <si>
+    <t>Pipeline11</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer(ngram(1,2),stop_words='english')</t>
+  </si>
+  <si>
+    <t>94.33%</t>
+  </si>
+  <si>
+    <t>94.47%</t>
+  </si>
+  <si>
+    <t>TfidfVectorizer(STEMATIZER,ngram(1,2),stop_words='english')</t>
+  </si>
+  <si>
+    <t>93.81%</t>
   </si>
 </sst>
 </file>
@@ -212,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -227,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,26 +798,72 @@
         <v>23</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G16" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -27,9 +27,6 @@
     <t>Delete "?"</t>
   </si>
   <si>
-    <t>Cross Validation(chi2)</t>
-  </si>
-  <si>
     <t>Logistic Regression</t>
   </si>
   <si>
@@ -133,6 +130,24 @@
   </si>
   <si>
     <t>94.91%</t>
+  </si>
+  <si>
+    <t>Feature Selection = SelectKBest(chi2) - Cross Validation = Randomized</t>
+  </si>
+  <si>
+    <t>Cross Validation = Randomized</t>
+  </si>
+  <si>
+    <t>Feature Selection = SelectKBest(chi2)</t>
+  </si>
+  <si>
+    <t>CountVectorizer(LEMMATIZER) + stop_words</t>
+  </si>
+  <si>
+    <t>95.17%</t>
+  </si>
+  <si>
+    <t>95.01%</t>
   </si>
 </sst>
 </file>
@@ -479,238 +494,291 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
+      <c r="H11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:E2"/>
-    <mergeCell ref="F1:G1"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="D1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF20923-AA0F-4029-93D5-7DCB3C35F610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -148,12 +149,39 @@
   </si>
   <si>
     <t>95.01%</t>
+  </si>
+  <si>
+    <t>Pipeline9</t>
+  </si>
+  <si>
+    <t>Loogistic Regression</t>
+  </si>
+  <si>
+    <t>96.49%</t>
+  </si>
+  <si>
+    <t>95.55%</t>
+  </si>
+  <si>
+    <t>Pipeline10</t>
+  </si>
+  <si>
+    <t>CountVectorizer(2-gram)</t>
+  </si>
+  <si>
+    <t>CountVectorizer(3-gram)</t>
+  </si>
+  <si>
+    <t>95.41%</t>
+  </si>
+  <si>
+    <t>95.12%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,10 +236,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,24 +521,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.26953125" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
@@ -520,13 +549,13 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -539,7 +568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -591,7 +620,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -617,7 +646,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -643,7 +672,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -669,7 +698,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -695,7 +724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -721,7 +750,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -747,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -771,6 +800,58 @@
       </c>
       <c r="H11" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF20923-AA0F-4029-93D5-7DCB3C35F610}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -176,12 +175,24 @@
   </si>
   <si>
     <t>95.12%</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
+  <si>
+    <t>94.48%</t>
+  </si>
+  <si>
+    <t>94.44%</t>
+  </si>
+  <si>
+    <t>Pipeline11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,24 +532,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" customWidth="1"/>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-    <col min="3" max="3" width="37.54296875" customWidth="1"/>
-    <col min="4" max="4" width="30.81640625" customWidth="1"/>
-    <col min="5" max="5" width="27.81640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1796875" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" customWidth="1"/>
+    <col min="2" max="2" width="25.77734375" customWidth="1"/>
+    <col min="3" max="3" width="37.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -554,7 +565,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -568,7 +579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,7 +605,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -620,7 +631,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,7 +657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -672,7 +683,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -698,7 +709,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -724,7 +735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -750,7 +761,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -776,7 +787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -802,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -828,7 +839,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -852,6 +863,32 @@
       </c>
       <c r="H13" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DC3835-ABDA-4391-AAB1-7E7B618BB83F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Pipeline1</t>
   </si>
@@ -187,12 +188,18 @@
   </si>
   <si>
     <t>Pipeline11</t>
+  </si>
+  <si>
+    <t>Pipeline12</t>
+  </si>
+  <si>
+    <t>Estoy usando word2vec, tengo algunas dudas que comentarle al profe, jeje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,24 +539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.21875" customWidth="1"/>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="3" max="3" width="37.5546875" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="25.81640625" customWidth="1"/>
+    <col min="3" max="3" width="37.54296875" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
+    <col min="6" max="6" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="3" t="s">
         <v>3</v>
@@ -565,7 +572,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -579,7 +586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -631,7 +638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -657,7 +664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -683,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -735,7 +742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -761,7 +768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -787,7 +794,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -813,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -839,7 +846,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>47</v>
       </c>
@@ -865,7 +872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
@@ -889,6 +896,14 @@
       </c>
       <c r="H14" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
